--- a/programas/Projects/5_DecisionTree_2/logELE.MC.xlsx
+++ b/programas/Projects/5_DecisionTree_2/logELE.MC.xlsx
@@ -28,6 +28,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data34" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data36" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data38" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data40" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data42" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data44" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data46" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data48" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data50" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data52" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data54" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data56" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data58" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1003,6 +1013,512 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Senal</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Objetivo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ExitReason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1044,52 +1560,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Senal</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Objetivo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ExitReason</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
